--- a/biology/Botanique/Oxycoccos/Oxycoccos.xlsx
+++ b/biology/Botanique/Oxycoccos/Oxycoccos.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F8"/>
+  <dimension ref="A1:H18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Canneberge
 Oxycoccus est un sous-genre de plante à fleurs du genre Vaccinium et de la famille des Ericaceae. Il comprend notamment la Canneberge en anglais : Cranberry, anglicisme aussi utilisé dans les produits industriels comme le jus de cranberry en Europe, qui est un sous-arbrisseau, qui croît dans les tourbières des régions froides. Sa présence caractérise les sols à sphaignes, imbibés d'eau.
@@ -512,7 +524,9 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">La canneberge est une plante vivace qui pousse à l'état sauvage dans les tourbières acides. L'arbrisseau à feuilles persistantes ne dépasse pas 30 cm de haut. Bien cultivé, ce végétal peut vivre plus de cent ans.
 Ses rameaux minces et rampants peuvent atteindre une taille de 80 cm.
@@ -547,12 +561,14 @@
           <t>Dénominations</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Au Québec, on emploie principalement le terme canneberge, bien que l'on utilise parfois également « atoca » ou « ataca », noms empruntés aux langues iroquoises[1]. En abénaki (une langue algonquienne), on disait popokwa pour désigner cette plante[2].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Au Québec, on emploie principalement le terme canneberge, bien que l'on utilise parfois également « atoca » ou « ataca », noms empruntés aux langues iroquoises. En abénaki (une langue algonquienne), on disait popokwa pour désigner cette plante.
 En Acadie, on l'appelle souvent « pomme de pré ».
-En France, on nomme cette plante également grande airelle rouge d’Amérique du Nord[3]. Cependant le terme anglais « cranberry » tend à s'imposer dans les pays francophones européens, car l'industrie agroalimentaire (principalement une société américaine) et l'industrie cosmétique privilégient pour leurs produits[4],[5] ce terme anglais[Note 1].
-Le mot canneberge serait le résultat d'une francisation, attestée dès le XVIIe siècle, du nom anglais « cranberry »[6]. Le terme anglais vient du mot crane-berry ancien nom américain de la plante qui signifie « baie de grue » parce que ses fleurs, au début de la floraison, poussent vers le sol et ressemblent à une tête de grue[7]. Cette appellation serait elle-même issue de dialectes allemands (ex. kranbeere) ou néerlandais / bas-allemands (ex. krônbere), par l'intermédiaire des colons[6], les Britanniques connaissant Vaccinium oxycoccos sous les noms « marshwhort » ou « fenberries »[2]. Il se peut aussi qu'une plante européenne (Vaccinium oxycoccos) ait eu ce nom, et que la canneberge d'Amérique (Vaccinium macrocarpon) se soit vu donner ce nom par sa ressemblance avec elle. Autre hypothèse, L'appellation « canneberge » viendrait de la ressemblance de la tige terminale supportant la fleur à une canne de berger.[réf. nécessaire]
+En France, on nomme cette plante également grande airelle rouge d’Amérique du Nord. Cependant le terme anglais « cranberry » tend à s'imposer dans les pays francophones européens, car l'industrie agroalimentaire (principalement une société américaine) et l'industrie cosmétique privilégient pour leurs produits, ce terme anglais[Note 1].
+Le mot canneberge serait le résultat d'une francisation, attestée dès le XVIIe siècle, du nom anglais « cranberry ». Le terme anglais vient du mot crane-berry ancien nom américain de la plante qui signifie « baie de grue » parce que ses fleurs, au début de la floraison, poussent vers le sol et ressemblent à une tête de grue. Cette appellation serait elle-même issue de dialectes allemands (ex. kranbeere) ou néerlandais / bas-allemands (ex. krônbere), par l'intermédiaire des colons, les Britanniques connaissant Vaccinium oxycoccos sous les noms « marshwhort » ou « fenberries ». Il se peut aussi qu'une plante européenne (Vaccinium oxycoccos) ait eu ce nom, et que la canneberge d'Amérique (Vaccinium macrocarpon) se soit vu donner ce nom par sa ressemblance avec elle. Autre hypothèse, L'appellation « canneberge » viendrait de la ressemblance de la tige terminale supportant la fleur à une canne de berger.[réf. nécessaire]
 </t>
         </is>
       </c>
@@ -583,74 +599,56 @@
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t xml:space="preserve">Zones de production
-La canneberge est une importante culture commerciale dans les États américains du Maine, Massachusetts, Michigan, Minnesota, New Jersey, Oregon, Washington, et Wisconsin, et également dans les provinces canadiennes de Colombie-Britannique, Nouveau-Brunswick, Ontario, Nouvelle-Écosse, Terre-Neuve et Québec. Selon l'Economic Research Service du ministère de l'Agriculture des États-Unis, le Wisconsin est le principal producteur de canneberge, avec plus de la moitié de la production des États-Unis. Le Massachusetts est le second producteur, avec 28 % de la production américaine. Celle-ci s'élève à 307 000 tonnes provenant de 15 600 hectares[9].
-Le Canada produit 79 000 tonnes sur 3 950 hectares[10]. Le Québec et la Colombie-Britannique produisent chacun environ la moitié du total canadien. Actuellement[Quand ?], environ 70 % de la production du Québec est achetée et transformée par trois entreprises de la région du Centre-du-Québec[11] dont une qui porte un des noms de la canneberge Atoka. Le reste de la production est livré directement à des acheteurs américains lors de la récolte. Les fruits transformés au Québec sont commercialisés sous la forme de fruits frais, fruits entiers congelés, concentrés de jus, fruits déshydratés, coulis et fruits confits.
+          <t>Zones de production</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La canneberge est une importante culture commerciale dans les États américains du Maine, Massachusetts, Michigan, Minnesota, New Jersey, Oregon, Washington, et Wisconsin, et également dans les provinces canadiennes de Colombie-Britannique, Nouveau-Brunswick, Ontario, Nouvelle-Écosse, Terre-Neuve et Québec. Selon l'Economic Research Service du ministère de l'Agriculture des États-Unis, le Wisconsin est le principal producteur de canneberge, avec plus de la moitié de la production des États-Unis. Le Massachusetts est le second producteur, avec 28 % de la production américaine. Celle-ci s'élève à 307 000 tonnes provenant de 15 600 hectares.
+Le Canada produit 79 000 tonnes sur 3 950 hectares. Le Québec et la Colombie-Britannique produisent chacun environ la moitié du total canadien. Actuellement[Quand ?], environ 70 % de la production du Québec est achetée et transformée par trois entreprises de la région du Centre-du-Québec dont une qui porte un des noms de la canneberge Atoka. Le reste de la production est livré directement à des acheteurs américains lors de la récolte. Les fruits transformés au Québec sont commercialisés sous la forme de fruits frais, fruits entiers congelés, concentrés de jus, fruits déshydratés, coulis et fruits confits.
 On trouve une faible production en Argentine et au Chili, dans les Pays baltes et en Europe de l'Est.
-Culture
-La culture de la canneberge est assez complexe. Elle nécessite d'énormes quantités d'eau pour protéger les bourgeons contre le gel au printemps et à l'automne, ainsi que les plants pendant l'hiver. En effet, la création d'une couche de glace autour des plants permet de les maintenir à 0 °C et donc de les protéger du grand froid et des vents asséchants. Au printemps, 4 cm de sable sont déposés sur la glace si bien que lorsque la glace fond, le sable tombe sur les plants, détruisant les insectes.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Oxycoccos</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Oxycoccos</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>Production</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Culture</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La culture de la canneberge est assez complexe. Elle nécessite d'énormes quantités d'eau pour protéger les bourgeons contre le gel au printemps et à l'automne, ainsi que les plants pendant l'hiver. En effet, la création d'une couche de glace autour des plants permet de les maintenir à 0 °C et donc de les protéger du grand froid et des vents asséchants. Au printemps, 4 cm de sable sont déposés sur la glace si bien que lorsque la glace fond, le sable tombe sur les plants, détruisant les insectes.
 La canneberge est cultivée dans des bassins sablonneux appelés cannebergières ou atocatières (au Québec). Elle donne ses premiers fruits à partir de la quatrième année.
 Historiquement, les cannebergières étaient implantées dans les marais et tourbières. Actuellement[Quand ?] les canneberges sont cultivées dans des bassins sablonneux peu profonds construits sur les terres hautes. La couche de terre superficielle est arasée pour former des digues autour des bassins. Du sable est apporté sur une couche de 10 à 20 cm. La surface est nivelée au laser avec une légère bosse au centre pour faciliter le drainage. En plus de maintenir l’eau, les digues permettent de supporter le matériel de culture pour éviter de rouler sur les plants. Le matériel d’irrigation sert à l’arrosage d’été et à la protection contre le gel à l’automne et au printemps.
 Pour cultiver la canneberge, plusieurs éléments clés sont essentiels à la croissance. Ces conditions nécessaires se retrouvent dans les tourbières. La plante exige un pH acide de 4 à 5 et une grande quantité d’eau à cause de la morphologie de ses racines. Au mois d’octobre, la plantation devient flamboyante et les bassins sont inondés pour faire flotter le fruit, ce qui facilite la récolte.
 Bien entretenus, les plants de canneberge peuvent produire pendant plus de cent ans.
-Récolte
-Jadis cueillies à l'état sauvage par les autochtones d'Amérique du Nord, les canneberges sont cultivées de façon de plus en plus intensive. La récolte, souvent mécanisée, se déroule la plupart du temps de fin septembre à début octobre. Surnommées « batteurs à œufs », d'énormes machines servent à les ramasser selon une technique industrielle dite « wet » (humide). Les engins brassent l'eau qui recouvre les arbustes plantés dans les marais. Détachés, les fruits mûrs remontent à la surface. Il faut alors les amener vers un bord de la tourbière. Les agriculteurs, dans l'eau jusqu'aux genoux, emprisonnent les fruits dans un boudin flottant. La récolte terminée, les baies seront séchées et nettoyées puis, par un système de tapis roulants, chargées à bord des camions. La récolte doit rejoindre le plus rapidement possible les entrepôts de stockage où elle sera calibrée et congelée.
-Créée en 1930, la coopérative Ocean Spray[12] est aujourd'hui la principale société productrice de canneberges aux États-Unis. Elle regroupe 650 producteurs, dont une centaine au Canada[13], et assure le transport des récoltes, le conditionnement des fruits et la vente sur les marchés américains, canadiens et dans le monde entier. On estime qu'environ 75 % des ventes mondiales de produits de canneberges sont faites sous la marque « Ocean Spray ».
-</t>
-        </is>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="1" t="n">
-        <v>4</v>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>Oxycoccos</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>Portail:Botanique/Articles liés</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>https://fr.wikipedia.org/wiki/Oxycoccos</t>
-        </is>
-      </c>
-      <c r="E6" t="inlineStr">
-        <is>
-          <t>Utilisation</t>
-        </is>
-      </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t xml:space="preserve">
-Présentations des produits
-La canneberge est commercialisée fraîche depuis la période de récolte (septembre) jusqu'à la fin de l'année, le fruit se conservant bien naturellement. Elle est aussi vendue sous forme de jus pur ou en mélange, et de fruit séché, dans les magasins de produits diététiques et bio, ainsi que sous forme de complément alimentaire (gélules, comprimés, sachets, etc.) en pharmacie. Une forme déshydratée appelée « Craisin (en) » est produite et vendue en Europe par Ocean Spray.
-Gastronomie
-Seules ou mélangées à des pommes, du raisin, de la framboise ou d'autres baies, les canneberges servent à la fabrication de plus de dix millions de litres de jus de fruit par an. L'exportation se développe, surtout vers la Grande-Bretagne. Ils sont également utilisés pour faire des confitures[14], des shampooings et d'autres cosmétiques.
-La dinde aux canneberges est un plat traditionnel nord-américain servi à l'occasion de l'Action de grâce (Thanksgiving).
-Qualités thérapeutiques
-Le fruit de la canneberge (Vaccinium macrocarpon) est reconnu pour ses qualités thérapeutiques, en premier lieu en tant qu'antioxydant[15].
-Antioxydants
-La canneberge est riche en vitamine C et en autres antioxydants. Il est parfois fait l'hypothèse que les antioxydants, qui permettent de neutraliser les radicaux libres du corps, préviennent l'apparition de certains cancers, de maladies cardiovasculaires et de diverses maladies liées au vieillissement mais la littérature scientifique semble mitigée à ces sujets[16],[17],[18].
-Infection urinaire (cystites)
-Une efficacité sur la prévention des infections urinaires est traditionnellement alléguée.
-Boire du jus de canneberge diminuerait de 20 % les infections urinaires[19],[20]. En effet, ce fruit originaire d'Amérique du Nord est le seul à posséder des molécules (les proanthocyanidines de type A, qui est un flavonoïde de type proanthocyanidol) qui empêchent les bactéries de s'accrocher à la paroi urinaire. L'actualisation en 2023 des revues systématiques des publications scientifiques par la Collaboration Cochrane permet de recommander la canneberge pour la prévention des infections urinaires à répétition[21]. En 2017, l'évaluation de son efficacité par sous groupe avait montré un bénéfice chez les enfants de 2 à 17 ans, les adultes de 36 à 55 ans, après une chirurgie gynécologique et lors de traitement par radiothérapie contre un cancer de la prostate[22].
-L'Agence française de sécurité sanitaire des aliments a pu considérer en 2004 que le jus de canneberge (apport journalier de 36 mg de proanthyocyanidine) (à l'état pur ou en poudre), à l'exclusion des nectars/cocktails, pouvait avoir une influence bénéfique sur la prévention des infections urinaires[23].
-Cependant, en 2009, L'AESA, dans le cadre de la révision de toutes les allégations de santé (Règlement 1924/2006), a jugé que les études fournies n'étaient pas suffisantes pour étayer les allégations de santé concernant les infections urinaires pour les produits de l'entreprise Ocean Spray (Ocean Spray cranberry drinks et Cranberries séchées et sucrées "Craisins"), portions contenant typiquement 80 mg de proanthocyanidine [24],[25].
-Soins dentaires
-La canneberge pourrait aussi être efficace pour soigner ou prévenir la gingivite et la parodontite (inflammation des gencives)[26],[27].
-La proanthocyanidine, dont les effets antiadhésifs sur certaines bactéries responsables des infections urinaires alléguées mais non prouvés (voir plus haut), permettrait également d'éliminer certaines bactéries dentaires en créant une sorte de film protecteur.
-Il est important de noter que les jus commerciaux offerts sur le marché ont une teneur élevée en sucre et une forte acidité. Ils ne sont donc pas bienfaisants en ce qui concerne l’hygiène buccale.
-Maladie cardiovasculaires
-Une étude contrôlée randomisée en double aveugle a révélé que l'ingestion quotidienne de poudre de canneberge entière sur une période d'un mois peut améliorer la fonction vasculaire chez les hommes en bonne santé[28], entraînant potentiellement des améliorations prolongées de la fonction endothéliale et offrant une protection contre l'athérosclérose et les maladies cardiovasculaires[29].
-La canneberge peut aussi faire baisser la protéine C-réactive, un marqueur inflammatoire[30].
-Autres
-D'autres effets ont été mis en évidence, comme l'amélioration de l'état général de la prostate[31]. Les extraits de petits fruits rouges possèdent une activité anti-cancéreuse in vitro[32], sans que l'on puisse actuellement déterminer précisément les composés chimiques en cause. Une étude portant uniquement sur les canneberges[33] indique que ce sont très probablement les polyphénols qui sont à l'origine de ces propriétés.
-Certaines molécules (proanthocyanidines à haut poids moléculaire) présentes dans la canneberge seraient aussi efficaces pour empêcher l'adhésion de la bactérie Helicobacter pylori aux cellules gastriques[34]. La consommation de jus à haut taux de proanthocyanidine deux fois par jour (44 mg de proanthocyanidine/portion de 240 ml) pendant 2 mois a permis de guérir 20 % des personnes infectés contre 7 % dans le groupe placebo[35].
 </t>
         </is>
       </c>
@@ -676,14 +674,19 @@
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>Bioaccumulation, radioactivité</t>
+          <t>Production</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t xml:space="preserve">Depuis la catastrophe de Tchernobyl, en Ukraine notamment, des baies telles que canneberges, airelles et myrtilles se sont montrées capables d'accumuler certains radionucléides[36],[37],[38],[39],[40], avec toutefois de fortes variations intraspécifiques, comme, de 2-3 à 555 Bq/kg pour l'activité du Sr-90 dans les myrtilles récoltées dans certaines pinèdes[40],[41]. Dans les zones contaminées, des mesures effectuées en juillet ont montré que 31 % de l'activité radioactive due au Cs-137 était concentrée dans les feuilles, 26 % dans le fruit, 25 % dans les pétioles, et 18 % dans les racines[39].
-Des contaminations plus élevées, atteignant 1 028 Bq/kg de Cs-137 ont été signalées chez les canneberges[42],[43], avec des taux plus élevés dans les racines.
-C'est un motif de préoccupation pour les toxicologues[44], car les canneberges, airelles et myrtilles sont une source traditionnelle et importante dans l'alimentation des pays de l'Est et d'Europe centrale ou du nord, dans des régions fortement touchées par les retombées de Tchernobyl. Ceci préoccupe aussi les écotoxicologues et écologues car de nombreux animaux sauvages ou d'élevage (comme les rennes) s'en nourrissent, pouvant contribuer à une contamination de la chaîne alimentaire (réseau trophique) et du gibier de ces régions, avec des conséquences encore mal cernées.
+          <t>Récolte</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Jadis cueillies à l'état sauvage par les autochtones d'Amérique du Nord, les canneberges sont cultivées de façon de plus en plus intensive. La récolte, souvent mécanisée, se déroule la plupart du temps de fin septembre à début octobre. Surnommées « batteurs à œufs », d'énormes machines servent à les ramasser selon une technique industrielle dite « wet » (humide). Les engins brassent l'eau qui recouvre les arbustes plantés dans les marais. Détachés, les fruits mûrs remontent à la surface. Il faut alors les amener vers un bord de la tourbière. Les agriculteurs, dans l'eau jusqu'aux genoux, emprisonnent les fruits dans un boudin flottant. La récolte terminée, les baies seront séchées et nettoyées puis, par un système de tapis roulants, chargées à bord des camions. La récolte doit rejoindre le plus rapidement possible les entrepôts de stockage où elle sera calibrée et congelée.
+Créée en 1930, la coopérative Ocean Spray est aujourd'hui la principale société productrice de canneberges aux États-Unis. Elle regroupe 650 producteurs, dont une centaine au Canada, et assure le transport des récoltes, le conditionnement des fruits et la vente sur les marchés américains, canadiens et dans le monde entier. On estime qu'environ 75 % des ventes mondiales de produits de canneberges sont faites sous la marque « Ocean Spray ».
 </t>
         </is>
       </c>
@@ -709,10 +712,404 @@
       </c>
       <c r="E8" t="inlineStr">
         <is>
+          <t>Utilisation</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr"/>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Oxycoccos</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Oxycoccos</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>Utilisation</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>Présentations des produits</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr"/>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La canneberge est commercialisée fraîche depuis la période de récolte (septembre) jusqu'à la fin de l'année, le fruit se conservant bien naturellement. Elle est aussi vendue sous forme de jus pur ou en mélange, et de fruit séché, dans les magasins de produits diététiques et bio, ainsi que sous forme de complément alimentaire (gélules, comprimés, sachets, etc.) en pharmacie. Une forme déshydratée appelée « Craisin (en) » est produite et vendue en Europe par Ocean Spray.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>Oxycoccos</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Oxycoccos</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>Utilisation</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>Gastronomie</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr"/>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Seules ou mélangées à des pommes, du raisin, de la framboise ou d'autres baies, les canneberges servent à la fabrication de plus de dix millions de litres de jus de fruit par an. L'exportation se développe, surtout vers la Grande-Bretagne. Ils sont également utilisés pour faire des confitures, des shampooings et d'autres cosmétiques.
+La dinde aux canneberges est un plat traditionnel nord-américain servi à l'occasion de l'Action de grâce (Thanksgiving).
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>Oxycoccos</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Oxycoccos</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>Utilisation</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>Qualités thérapeutiques</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr"/>
+      <c r="H11" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le fruit de la canneberge (Vaccinium macrocarpon) est reconnu pour ses qualités thérapeutiques, en premier lieu en tant qu'antioxydant.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>Oxycoccos</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Oxycoccos</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>Utilisation</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>Qualités thérapeutiques</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>Antioxydants</t>
+        </is>
+      </c>
+      <c r="H12" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La canneberge est riche en vitamine C et en autres antioxydants. Il est parfois fait l'hypothèse que les antioxydants, qui permettent de neutraliser les radicaux libres du corps, préviennent l'apparition de certains cancers, de maladies cardiovasculaires et de diverses maladies liées au vieillissement mais la littérature scientifique semble mitigée à ces sujets.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>Oxycoccos</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Oxycoccos</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>Utilisation</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>Qualités thérapeutiques</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>Infection urinaire (cystites)</t>
+        </is>
+      </c>
+      <c r="H13" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Une efficacité sur la prévention des infections urinaires est traditionnellement alléguée.
+Boire du jus de canneberge diminuerait de 20 % les infections urinaires,. En effet, ce fruit originaire d'Amérique du Nord est le seul à posséder des molécules (les proanthocyanidines de type A, qui est un flavonoïde de type proanthocyanidol) qui empêchent les bactéries de s'accrocher à la paroi urinaire. L'actualisation en 2023 des revues systématiques des publications scientifiques par la Collaboration Cochrane permet de recommander la canneberge pour la prévention des infections urinaires à répétition. En 2017, l'évaluation de son efficacité par sous groupe avait montré un bénéfice chez les enfants de 2 à 17 ans, les adultes de 36 à 55 ans, après une chirurgie gynécologique et lors de traitement par radiothérapie contre un cancer de la prostate.
+L'Agence française de sécurité sanitaire des aliments a pu considérer en 2004 que le jus de canneberge (apport journalier de 36 mg de proanthyocyanidine) (à l'état pur ou en poudre), à l'exclusion des nectars/cocktails, pouvait avoir une influence bénéfique sur la prévention des infections urinaires.
+Cependant, en 2009, L'AESA, dans le cadre de la révision de toutes les allégations de santé (Règlement 1924/2006), a jugé que les études fournies n'étaient pas suffisantes pour étayer les allégations de santé concernant les infections urinaires pour les produits de l'entreprise Ocean Spray (Ocean Spray cranberry drinks et Cranberries séchées et sucrées "Craisins"), portions contenant typiquement 80 mg de proanthocyanidine ,.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>Oxycoccos</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Oxycoccos</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>Utilisation</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>Qualités thérapeutiques</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>Soins dentaires</t>
+        </is>
+      </c>
+      <c r="H14" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La canneberge pourrait aussi être efficace pour soigner ou prévenir la gingivite et la parodontite (inflammation des gencives),.
+La proanthocyanidine, dont les effets antiadhésifs sur certaines bactéries responsables des infections urinaires alléguées mais non prouvés (voir plus haut), permettrait également d'éliminer certaines bactéries dentaires en créant une sorte de film protecteur.
+Il est important de noter que les jus commerciaux offerts sur le marché ont une teneur élevée en sucre et une forte acidité. Ils ne sont donc pas bienfaisants en ce qui concerne l’hygiène buccale.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>Oxycoccos</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Oxycoccos</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>Utilisation</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>Qualités thérapeutiques</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>Maladie cardiovasculaires</t>
+        </is>
+      </c>
+      <c r="H15" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Une étude contrôlée randomisée en double aveugle a révélé que l'ingestion quotidienne de poudre de canneberge entière sur une période d'un mois peut améliorer la fonction vasculaire chez les hommes en bonne santé, entraînant potentiellement des améliorations prolongées de la fonction endothéliale et offrant une protection contre l'athérosclérose et les maladies cardiovasculaires.
+La canneberge peut aussi faire baisser la protéine C-réactive, un marqueur inflammatoire.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="1" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>Oxycoccos</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Oxycoccos</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>Utilisation</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>Qualités thérapeutiques</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>Autres</t>
+        </is>
+      </c>
+      <c r="H16" t="inlineStr">
+        <is>
+          <t xml:space="preserve">D'autres effets ont été mis en évidence, comme l'amélioration de l'état général de la prostate. Les extraits de petits fruits rouges possèdent une activité anti-cancéreuse in vitro, sans que l'on puisse actuellement déterminer précisément les composés chimiques en cause. Une étude portant uniquement sur les canneberges indique que ce sont très probablement les polyphénols qui sont à l'origine de ces propriétés.
+Certaines molécules (proanthocyanidines à haut poids moléculaire) présentes dans la canneberge seraient aussi efficaces pour empêcher l'adhésion de la bactérie Helicobacter pylori aux cellules gastriques. La consommation de jus à haut taux de proanthocyanidine deux fois par jour (44 mg de proanthocyanidine/portion de 240 ml) pendant 2 mois a permis de guérir 20 % des personnes infectés contre 7 % dans le groupe placebo.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="1" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>Oxycoccos</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Oxycoccos</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>Bioaccumulation, radioactivité</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr"/>
+      <c r="G17" t="inlineStr"/>
+      <c r="H17" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Depuis la catastrophe de Tchernobyl, en Ukraine notamment, des baies telles que canneberges, airelles et myrtilles se sont montrées capables d'accumuler certains radionucléides avec toutefois de fortes variations intraspécifiques, comme, de 2-3 à 555 Bq/kg pour l'activité du Sr-90 dans les myrtilles récoltées dans certaines pinèdes,. Dans les zones contaminées, des mesures effectuées en juillet ont montré que 31 % de l'activité radioactive due au Cs-137 était concentrée dans les feuilles, 26 % dans le fruit, 25 % dans les pétioles, et 18 % dans les racines.
+Des contaminations plus élevées, atteignant 1 028 Bq/kg de Cs-137 ont été signalées chez les canneberges avec des taux plus élevés dans les racines.
+C'est un motif de préoccupation pour les toxicologues, car les canneberges, airelles et myrtilles sont une source traditionnelle et importante dans l'alimentation des pays de l'Est et d'Europe centrale ou du nord, dans des régions fortement touchées par les retombées de Tchernobyl. Ceci préoccupe aussi les écotoxicologues et écologues car de nombreux animaux sauvages ou d'élevage (comme les rennes) s'en nourrissent, pouvant contribuer à une contamination de la chaîne alimentaire (réseau trophique) et du gibier de ces régions, avec des conséquences encore mal cernées.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="1" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>Oxycoccos</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Oxycoccos</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
           <t>Divers</t>
         </is>
       </c>
-      <c r="F8" t="inlineStr">
+      <c r="F18" t="inlineStr"/>
+      <c r="G18" t="inlineStr"/>
+      <c r="H18" t="inlineStr">
         <is>
           <t>Le groupe de musique irlandais The Cranberries tire le nom de ce fruit.
 Le Cellier du soleil est un conte de l'écrivain russe Mikhaïl Prichvine, l'histoire de deux enfants orphelins partis à la recherche de canneberge dans la forêt.</t>
